--- a/RMPP/RMPP_Unit07_Exa7.6B.xlsx
+++ b/RMPP/RMPP_Unit07_Exa7.6B.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_A3F0F57D6446B363510809F9ECD01D35BFF001B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11308C7E-60F6-48E4-8C5F-1263FC99B127}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870"/>
+    <workbookView xWindow="4920" yWindow="2295" windowWidth="26835" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
   <si>
     <t>Diet</t>
   </si>
@@ -43,16 +62,80 @@
   </si>
   <si>
     <t>Diet B</t>
+  </si>
+  <si>
+    <t>F-Test Two-Sample for Variances</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P(F&lt;=f) one-tail</t>
+  </si>
+  <si>
+    <t>F Critical one-tail</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Difference in Means</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>This analysis compares weight loss for two diets (A and B), each tested on 50 participants. We first checked whether the two groups had similar variance using an F-test, which showed there was no major difference.
+Then, a two-sample t-test (assuming equal variances) was run. Diet A had an average weight loss of about 5.34, while Diet B’s average was about 3.71, a difference of around 1.63. Because the p-value (about 0.0028) is lower than 0.05, this difference is statistically significant. Hence, Diet A seems to lead to more weight loss than Diet B.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -73,6 +156,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,11 +184,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,19 +228,100 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542252</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18451AF3-97DA-0D58-E2EF-6561545752DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="57150"/>
+          <a:ext cx="5380952" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +359,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -198,6 +393,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -232,9 +428,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,14 +604,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -430,7 +637,7 @@
         <v>3.7090000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -447,8 +654,11 @@
         <f>COUNT(B2:B51)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -463,7 +673,7 @@
         <v>5.3411999999999988</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -477,24 +687,49 @@
         <f>STDEV(B2:B51)</f>
         <v>2.5356026132351492</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>9.077</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5.3411999999999988</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3.709960000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>6.4130000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6.4292806122449173</v>
+      </c>
+      <c r="J7" s="7">
+        <v>7.6675935902040759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -511,8 +746,17 @@
         <f>COUNT(B52:B101)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7">
+        <v>50</v>
+      </c>
+      <c r="J8" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -526,8 +770,17 @@
         <f>AVERAGE(B52:B101)</f>
         <v>3.709960000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7">
+        <v>49</v>
+      </c>
+      <c r="J9" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -541,24 +794,45 @@
         <f>STDEV(B52:B101)</f>
         <v>2.7690419986349206</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.83850044171078708</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>6.8810000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.26995147805846798</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>7.2649999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.62216546750177781</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -566,15 +840,22 @@
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>3.7549999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <f>2*I11</f>
+        <v>0.53990295611693595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -582,7 +863,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -590,15 +871,18 @@
         <v>7.032</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3">
         <v>9.0519999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -606,103 +890,193 @@
         <v>10.061999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3">
         <v>6.4489999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="H20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5.3411999999999988</v>
+      </c>
+      <c r="J20" s="7">
+        <v>3.709960000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="3">
         <v>9.0190000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="H21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6.4292806122449173</v>
+      </c>
+      <c r="J21" s="7">
+        <v>7.6675935902040759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3">
         <v>-1.7150000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="H22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7">
+        <v>50</v>
+      </c>
+      <c r="J22" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="3">
         <v>4.718</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="H23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="7">
+        <v>7.0484371012244962</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="3">
         <v>4.0069999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="H24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="3">
         <v>7.2409999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="H25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7">
+        <v>98</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="3">
         <v>2.1280000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="H26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3.0721431791540486</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="3">
         <v>6.968</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="H27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1.3757718599206375E-3</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="3">
         <v>4.8529999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="H28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1.6605512170657302</v>
+      </c>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="3">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="H29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2.7515437198412751E-3</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="H30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1.9844674545084788</v>
+      </c>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -710,15 +1084,22 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="3">
         <v>7.0330000000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="H32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32">
+        <f>I20-J20</f>
+        <v>1.6312399999999978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -726,7 +1107,7 @@
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -734,7 +1115,7 @@
         <v>5.569</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -742,87 +1123,164 @@
         <v>6.7119999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="3">
         <v>3.6629999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="H36" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="3">
         <v>2.7410000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="H37" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="3">
         <v>6.2560000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="3">
         <v>5.3490000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="3">
         <v>5.4450000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="3">
         <v>4.97</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="3">
         <v>3.613</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="3">
         <v>7.5679999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="3">
         <v>5.8609999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -830,7 +1288,7 @@
         <v>4.157</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -838,7 +1296,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -846,7 +1304,7 @@
         <v>4.4409999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -854,7 +1312,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -862,7 +1320,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -870,7 +1328,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
@@ -878,7 +1336,7 @@
         <v>-1.087</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
@@ -886,7 +1344,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -894,7 +1352,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -902,7 +1360,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -910,7 +1368,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -918,7 +1376,7 @@
         <v>3.089</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -926,7 +1384,7 @@
         <v>4.008</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -934,7 +1392,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
@@ -942,7 +1400,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -950,7 +1408,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
@@ -958,7 +1416,7 @@
         <v>-4.1479999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -966,7 +1424,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -974,7 +1432,7 @@
         <v>2.8650000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -982,7 +1440,7 @@
         <v>4.3689999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
@@ -990,7 +1448,7 @@
         <v>6.3369999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
@@ -998,7 +1456,7 @@
         <v>6.3079999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1464,7 @@
         <v>3.4940000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -1014,7 +1472,7 @@
         <v>10.539</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -1022,7 +1480,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1488,7 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1496,7 @@
         <v>5.4850000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1504,7 @@
         <v>-1.8939999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
@@ -1054,7 +1512,7 @@
         <v>8.016</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +1520,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1528,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1078,7 +1536,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -1086,7 +1544,7 @@
         <v>7.7270000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1552,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1560,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -1110,7 +1568,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1576,7 @@
         <v>4.9850000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1584,7 @@
         <v>5.1589999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -1134,7 +1592,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1600,7 @@
         <v>4.9340000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1608,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1616,7 @@
         <v>5.5979999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1624,7 @@
         <v>2.1619999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
@@ -1174,7 +1632,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1640,7 @@
         <v>7.0460000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
@@ -1190,7 +1648,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
@@ -1198,7 +1656,7 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -1206,7 +1664,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
@@ -1214,7 +1672,7 @@
         <v>2.145</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1222,7 +1680,7 @@
         <v>8.4350000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
@@ -1230,7 +1688,7 @@
         <v>6.0990000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
@@ -1238,7 +1696,7 @@
         <v>3.972</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
@@ -1246,7 +1704,7 @@
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1712,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1720,7 @@
         <v>7.0129999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
@@ -1271,19 +1729,24 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H37:O45"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="41" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1292,12 +1755,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
